--- a/result-all.xlsx
+++ b/result-all.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
   <si>
     <t>name</t>
   </si>
@@ -22,6 +22,9 @@
     <t>type</t>
   </si>
   <si>
+    <t>chunk</t>
+  </si>
+  <si>
     <t>P</t>
   </si>
   <si>
@@ -29,6 +32,18 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>Apex AD2600 Progressive-scan DVD player</t>
+  </si>
+  <si>
+    <t>Canon G3</t>
+  </si>
+  <si>
+    <t>Creative Labs Nomad Jukebox Zen Xtra 40GB</t>
+  </si>
+  <si>
+    <t>Nikon coolpix 4300</t>
   </si>
   <si>
     <t>Nokia 6610</t>
@@ -389,13 +404,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -411,45 +426,468 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0.8503740648379052</v>
+      </c>
+      <c r="F2">
+        <v>0.6552346570397112</v>
+      </c>
+      <c r="G2">
+        <v>0.740158516131154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0.8528678304239401</v>
+      </c>
+      <c r="F3">
+        <v>0.616557734204793</v>
+      </c>
+      <c r="G3">
+        <v>0.7157113225196978</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0.8235294117647058</v>
+      </c>
+      <c r="F4">
+        <v>0.6563467492260062</v>
+      </c>
+      <c r="G4">
+        <v>0.7304947083435884</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0.8235294117647058</v>
+      </c>
+      <c r="F5">
+        <v>0.6672535211267606</v>
+      </c>
+      <c r="G5">
+        <v>0.7372004168113929</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0.9082321187584346</v>
+      </c>
+      <c r="F6">
+        <v>0.6461453133666112</v>
+      </c>
+      <c r="G6">
+        <v>0.7550932159153728</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0.8041958041958042</v>
-      </c>
-      <c r="E2">
-        <v>0.7398373983739838</v>
-      </c>
-      <c r="F2">
-        <v>0.7706753074600486</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0.9095816464237517</v>
+      </c>
+      <c r="F7">
+        <v>0.6511775938892426</v>
+      </c>
+      <c r="G7">
+        <v>0.758988539251262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0.7613636363636364</v>
+      </c>
+      <c r="F8">
+        <v>0.6096866096866097</v>
+      </c>
+      <c r="G8">
+        <v>0.6771352334175541</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0.8295454545454546</v>
+      </c>
+      <c r="F9">
+        <v>0.6430868167202572</v>
+      </c>
+      <c r="G9">
+        <v>0.7245118229412203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0.8006993006993007</v>
+      </c>
+      <c r="F10">
+        <v>0.7412008281573499</v>
+      </c>
+      <c r="G10">
+        <v>0.7698021080307049</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0.8006993006993007</v>
+      </c>
+      <c r="F11">
+        <v>0.7712895377128953</v>
+      </c>
+      <c r="G11">
+        <v>0.7857193109681191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0.8528678304239401</v>
+      </c>
+      <c r="F12">
+        <v>0.6284074605451937</v>
+      </c>
+      <c r="G12">
+        <v>0.7236311990956784</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0.8578553615960099</v>
+      </c>
+      <c r="F13">
+        <v>0.6013513513513513</v>
+      </c>
+      <c r="G13">
+        <v>0.7070588099444579</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0.8588235294117647</v>
+      </c>
+      <c r="F14">
+        <v>0.6418109187749668</v>
+      </c>
+      <c r="G14">
+        <v>0.7346257033394924</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0.8588235294117647</v>
+      </c>
+      <c r="F15">
+        <v>0.6631578947368421</v>
+      </c>
+      <c r="G15">
+        <v>0.7484133441822619</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0.9122807017543859</v>
+      </c>
+      <c r="F16">
+        <v>0.6227378190255221</v>
+      </c>
+      <c r="G16">
+        <v>0.7402017459189411</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0.9149797570850202</v>
+      </c>
+      <c r="F17">
+        <v>0.630801687763713</v>
+      </c>
+      <c r="G17">
+        <v>0.7467689264381662</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0.7670454545454546</v>
+      </c>
+      <c r="F18">
+        <v>0.5944584382871536</v>
+      </c>
+      <c r="G18">
+        <v>0.6698132049489651</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0.8409090909090909</v>
+      </c>
+      <c r="F19">
+        <v>0.6242774566473989</v>
+      </c>
+      <c r="G19">
+        <v>0.7165784990585493</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
         <v>0.8216783216783217</v>
       </c>
-      <c r="E3">
-        <v>0.7164948453608248</v>
-      </c>
-      <c r="F3">
-        <v>0.7654902512185977</v>
+      <c r="F20">
+        <v>0.7182608695652174</v>
+      </c>
+      <c r="G20">
+        <v>0.7664970009042698</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0.8321678321678322</v>
+      </c>
+      <c r="F21">
+        <v>0.7375745526838966</v>
+      </c>
+      <c r="G21">
+        <v>0.7820210787352758</v>
       </c>
     </row>
   </sheetData>

--- a/result-all.xlsx
+++ b/result-all.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>name</t>
   </si>
@@ -404,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,13 +444,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.8503740648379052</v>
+        <v>0.7955112219451371</v>
       </c>
       <c r="F2">
-        <v>0.6552346570397112</v>
+        <v>0.6697530864197531</v>
       </c>
       <c r="G2">
-        <v>0.740158516131154</v>
+        <v>0.7272354798211931</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -458,22 +458,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.8528678304239401</v>
+        <v>0.8313725490196079</v>
       </c>
       <c r="F3">
-        <v>0.616557734204793</v>
+        <v>0.7393767705382436</v>
       </c>
       <c r="G3">
-        <v>0.7157113225196978</v>
+        <v>0.7826806515266176</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -481,7 +481,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -490,13 +490,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.8235294117647058</v>
+        <v>0.8893387314439946</v>
       </c>
       <c r="F4">
-        <v>0.6563467492260062</v>
+        <v>0.6822339913336543</v>
       </c>
       <c r="G4">
-        <v>0.7304947083435884</v>
+        <v>0.7721400398554619</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -504,22 +504,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.8235294117647058</v>
+        <v>0.7613636363636364</v>
       </c>
       <c r="F5">
-        <v>0.6672535211267606</v>
+        <v>0.7126760563380282</v>
       </c>
       <c r="G5">
-        <v>0.7372004168113929</v>
+        <v>0.7362157701578753</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -527,7 +527,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -536,358 +536,13 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.9082321187584346</v>
+        <v>0.8006993006993007</v>
       </c>
       <c r="F6">
-        <v>0.6461453133666112</v>
+        <v>0.8033395176252319</v>
       </c>
       <c r="G6">
-        <v>0.7550932159153728</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>0.9095816464237517</v>
-      </c>
-      <c r="F7">
-        <v>0.6511775938892426</v>
-      </c>
-      <c r="G7">
-        <v>0.758988539251262</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0.7613636363636364</v>
-      </c>
-      <c r="F8">
-        <v>0.6096866096866097</v>
-      </c>
-      <c r="G8">
-        <v>0.6771352334175541</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>0.8295454545454546</v>
-      </c>
-      <c r="F9">
-        <v>0.6430868167202572</v>
-      </c>
-      <c r="G9">
-        <v>0.7245118229412203</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0.8006993006993007</v>
-      </c>
-      <c r="F10">
-        <v>0.7412008281573499</v>
-      </c>
-      <c r="G10">
-        <v>0.7698021080307049</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>0.8006993006993007</v>
-      </c>
-      <c r="F11">
-        <v>0.7712895377128953</v>
-      </c>
-      <c r="G11">
-        <v>0.7857193109681191</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0.8528678304239401</v>
-      </c>
-      <c r="F12">
-        <v>0.6284074605451937</v>
-      </c>
-      <c r="G12">
-        <v>0.7236311990956784</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>0.8578553615960099</v>
-      </c>
-      <c r="F13">
-        <v>0.6013513513513513</v>
-      </c>
-      <c r="G13">
-        <v>0.7070588099444579</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0.8588235294117647</v>
-      </c>
-      <c r="F14">
-        <v>0.6418109187749668</v>
-      </c>
-      <c r="G14">
-        <v>0.7346257033394924</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>0.8588235294117647</v>
-      </c>
-      <c r="F15">
-        <v>0.6631578947368421</v>
-      </c>
-      <c r="G15">
-        <v>0.7484133441822619</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0.9122807017543859</v>
-      </c>
-      <c r="F16">
-        <v>0.6227378190255221</v>
-      </c>
-      <c r="G16">
-        <v>0.7402017459189411</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>0.9149797570850202</v>
-      </c>
-      <c r="F17">
-        <v>0.630801687763713</v>
-      </c>
-      <c r="G17">
-        <v>0.7467689264381662</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0.7670454545454546</v>
-      </c>
-      <c r="F18">
-        <v>0.5944584382871536</v>
-      </c>
-      <c r="G18">
-        <v>0.6698132049489651</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>0.8409090909090909</v>
-      </c>
-      <c r="F19">
-        <v>0.6242774566473989</v>
-      </c>
-      <c r="G19">
-        <v>0.7165784990585493</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0.8216783216783217</v>
-      </c>
-      <c r="F20">
-        <v>0.7182608695652174</v>
-      </c>
-      <c r="G20">
-        <v>0.7664970009042698</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>0.8321678321678322</v>
-      </c>
-      <c r="F21">
-        <v>0.7375745526838966</v>
-      </c>
-      <c r="G21">
-        <v>0.7820210787352758</v>
+        <v>0.8020172362892235</v>
       </c>
     </row>
   </sheetData>

--- a/result-all.xlsx
+++ b/result-all.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>name</t>
   </si>
@@ -22,9 +22,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>chunk</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
@@ -34,19 +31,16 @@
     <t>F</t>
   </si>
   <si>
-    <t>Apex AD2600 Progressive-scan DVD player</t>
-  </si>
-  <si>
     <t>Canon G3</t>
   </si>
   <si>
-    <t>Creative Labs Nomad Jukebox Zen Xtra 40GB</t>
-  </si>
-  <si>
-    <t>Nikon coolpix 4300</t>
-  </si>
-  <si>
-    <t>Nokia 6610</t>
+    <t>hasil</t>
+  </si>
+  <si>
+    <t>hasil_chunk</t>
+  </si>
+  <si>
+    <t>hasil_clause</t>
   </si>
 </sst>
 </file>
@@ -404,13 +398,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,123 +420,65 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.7098039215686275</v>
       </c>
       <c r="E2">
-        <v>0.7955112219451371</v>
+        <v>0.7980456026058632</v>
       </c>
       <c r="F2">
-        <v>0.6697530864197531</v>
-      </c>
-      <c r="G2">
-        <v>0.7272354798211931</v>
+        <v>0.7513427424137172</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.6588235294117647</v>
       </c>
       <c r="E3">
-        <v>0.8313725490196079</v>
+        <v>0.8285714285714286</v>
       </c>
       <c r="F3">
-        <v>0.7393767705382436</v>
-      </c>
-      <c r="G3">
-        <v>0.7826806515266176</v>
+        <v>0.7340112994350283</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.7098039215686275</v>
       </c>
       <c r="E4">
-        <v>0.8893387314439946</v>
+        <v>0.7887640449438202</v>
       </c>
       <c r="F4">
-        <v>0.6822339913336543</v>
-      </c>
-      <c r="G4">
-        <v>0.7721400398554619</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0.7613636363636364</v>
-      </c>
-      <c r="F5">
-        <v>0.7126760563380282</v>
-      </c>
-      <c r="G5">
-        <v>0.7362157701578753</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0.8006993006993007</v>
-      </c>
-      <c r="F6">
-        <v>0.8033395176252319</v>
-      </c>
-      <c r="G6">
-        <v>0.8020172362892235</v>
+        <v>0.7472037635989415</v>
       </c>
     </row>
   </sheetData>

--- a/result-all.xlsx
+++ b/result-all.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="16">
   <si>
     <t>name</t>
   </si>
@@ -31,16 +31,37 @@
     <t>F</t>
   </si>
   <si>
+    <t>Apex AD2600 Progressive-scan DVD player</t>
+  </si>
+  <si>
     <t>Canon G3</t>
   </si>
   <si>
+    <t>Creative Labs Nomad Jukebox Zen Xtra 40GB</t>
+  </si>
+  <si>
+    <t>Nikon coolpix 4300</t>
+  </si>
+  <si>
+    <t>Nokia 6610</t>
+  </si>
+  <si>
     <t>hasil</t>
   </si>
   <si>
+    <t>hasil_plus</t>
+  </si>
+  <si>
     <t>hasil_chunk</t>
   </si>
   <si>
+    <t>hasil_chunk_plus</t>
+  </si>
+  <si>
     <t>hasil_clause</t>
+  </si>
+  <si>
+    <t>hasil_clause_plus</t>
   </si>
 </sst>
 </file>
@@ -398,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,16 +450,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>0.7098039215686275</v>
+        <v>0.773067331670823</v>
       </c>
       <c r="E2">
-        <v>0.7980456026058632</v>
+        <v>0.7996453900709219</v>
       </c>
       <c r="F2">
-        <v>0.7513427424137172</v>
+        <v>0.7861317829239424</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -446,19 +467,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>0.6588235294117647</v>
+        <v>0.7137254901960784</v>
       </c>
       <c r="E3">
-        <v>0.8285714285714286</v>
+        <v>0.7961476725521669</v>
       </c>
       <c r="F3">
-        <v>0.7340112994350283</v>
+        <v>0.7526869168619146</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -466,19 +487,559 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>0.873144399460189</v>
+      </c>
+      <c r="E4">
+        <v>0.7359307359307359</v>
+      </c>
+      <c r="F4">
+        <v>0.7986871294390164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>0.6647727272727273</v>
+      </c>
+      <c r="E5">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="F5">
+        <v>0.7168490153172866</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>0.7412587412587412</v>
+      </c>
+      <c r="E6">
+        <v>0.8763102725366876</v>
+      </c>
+      <c r="F6">
+        <v>0.8031467517401392</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>0.7855361596009975</v>
+      </c>
+      <c r="E7">
+        <v>0.7667638483965015</v>
+      </c>
+      <c r="F7">
+        <v>0.7760364951196208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>0.7294117647058823</v>
+      </c>
+      <c r="E8">
+        <v>0.7629733520336606</v>
+      </c>
+      <c r="F8">
+        <v>0.745815182539858</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>0.8812415654520918</v>
+      </c>
+      <c r="E9">
+        <v>0.706777316735823</v>
+      </c>
+      <c r="F9">
+        <v>0.7844258730326645</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="D4">
-        <v>0.7098039215686275</v>
-      </c>
-      <c r="E4">
-        <v>0.7887640449438202</v>
-      </c>
-      <c r="F4">
-        <v>0.7472037635989415</v>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>0.6875</v>
+      </c>
+      <c r="E10">
+        <v>0.7722222222222223</v>
+      </c>
+      <c r="F10">
+        <v>0.7274024738344435</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>0.7552447552447552</v>
+      </c>
+      <c r="E11">
+        <v>0.8539741219963032</v>
+      </c>
+      <c r="F11">
+        <v>0.8015807990746542</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>0.8079800498753117</v>
+      </c>
+      <c r="E12">
+        <v>0.7589098532494759</v>
+      </c>
+      <c r="F12">
+        <v>0.7826765873677888</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>0.7215686274509804</v>
+      </c>
+      <c r="E13">
+        <v>0.8113553113553114</v>
+      </c>
+      <c r="F13">
+        <v>0.763832468877238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>0.8852901484480432</v>
+      </c>
+      <c r="E14">
+        <v>0.7477092241905925</v>
+      </c>
+      <c r="F14">
+        <v>0.8107040592551906</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>0.7954545454545454</v>
+      </c>
+      <c r="E15">
+        <v>0.7961783439490446</v>
+      </c>
+      <c r="F15">
+        <v>0.7958162801273306</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <v>0.7727272727272727</v>
+      </c>
+      <c r="E16">
+        <v>0.8788598574821853</v>
+      </c>
+      <c r="F16">
+        <v>0.8223834738837681</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <v>0.8179551122194514</v>
+      </c>
+      <c r="E17">
+        <v>0.7428571428571429</v>
+      </c>
+      <c r="F17">
+        <v>0.7785994704647128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18">
+        <v>0.7647058823529411</v>
+      </c>
+      <c r="E18">
+        <v>0.8042071197411004</v>
+      </c>
+      <c r="F18">
+        <v>0.7839592307225626</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <v>0.9014844804318488</v>
+      </c>
+      <c r="E19">
+        <v>0.7246376811594203</v>
+      </c>
+      <c r="F19">
+        <v>0.8034447090519834</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20">
+        <v>0.8295454545454546</v>
+      </c>
+      <c r="E20">
+        <v>0.7852941176470588</v>
+      </c>
+      <c r="F20">
+        <v>0.8068134779369154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21">
+        <v>0.8111888111888111</v>
+      </c>
+      <c r="E21">
+        <v>0.8747390396659708</v>
+      </c>
+      <c r="F21">
+        <v>0.841766177985989</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22">
+        <v>0.8478802992518704</v>
+      </c>
+      <c r="E22">
+        <v>0.6739130434782609</v>
+      </c>
+      <c r="F22">
+        <v>0.7509529407573653</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23">
+        <v>0.7843137254901961</v>
+      </c>
+      <c r="E23">
+        <v>0.7616580310880829</v>
+      </c>
+      <c r="F23">
+        <v>0.7728198725110076</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24">
+        <v>0.8974358974358975</v>
+      </c>
+      <c r="E24">
+        <v>0.6837262794709603</v>
+      </c>
+      <c r="F24">
+        <v>0.7761386101682272</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="E25">
+        <v>0.7575757575757576</v>
+      </c>
+      <c r="F25">
+        <v>0.7867132867132868</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26">
+        <v>0.7727272727272727</v>
+      </c>
+      <c r="E26">
+        <v>0.8142201834862385</v>
+      </c>
+      <c r="F26">
+        <v>0.7929312836683747</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27">
+        <v>0.8503740648379052</v>
+      </c>
+      <c r="E27">
+        <v>0.6482649842271293</v>
+      </c>
+      <c r="F27">
+        <v>0.735691132662301</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28">
+        <v>0.796078431372549</v>
+      </c>
+      <c r="E28">
+        <v>0.7332361516034985</v>
+      </c>
+      <c r="F28">
+        <v>0.7633661404813791</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29">
+        <v>0.9109311740890689</v>
+      </c>
+      <c r="E29">
+        <v>0.6585484656600098</v>
+      </c>
+      <c r="F29">
+        <v>0.7644474153409669</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30">
+        <v>0.8295454545454546</v>
+      </c>
+      <c r="E30">
+        <v>0.7238372093023255</v>
+      </c>
+      <c r="F30">
+        <v>0.7730945899965975</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31">
+        <v>0.8146853146853147</v>
+      </c>
+      <c r="E31">
+        <v>0.8057142857142857</v>
+      </c>
+      <c r="F31">
+        <v>0.8101749670164362</v>
       </c>
     </row>
   </sheetData>

--- a/result-all.xlsx
+++ b/result-all.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hilmi Raditya\tugas-akhir\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -67,8 +72,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,12 +90,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -120,17 +131,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -177,7 +197,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -209,9 +229,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -243,6 +264,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -418,14 +440,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -442,7 +469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -453,16 +480,16 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>0.773067331670823</v>
+        <v>0.77306733167082298</v>
       </c>
       <c r="E2">
-        <v>0.7996453900709219</v>
+        <v>0.79964539007092195</v>
       </c>
       <c r="F2">
-        <v>0.7861317829239424</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.78613178292394237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -473,16 +500,16 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>0.7137254901960784</v>
+        <v>0.71372549019607845</v>
       </c>
       <c r="E3">
         <v>0.7961476725521669</v>
       </c>
       <c r="F3">
-        <v>0.7526869168619146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.75268691686191458</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -493,16 +520,16 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <v>0.873144399460189</v>
+        <v>0.87314439946018896</v>
       </c>
       <c r="E4">
-        <v>0.7359307359307359</v>
+        <v>0.73593073593073588</v>
       </c>
       <c r="F4">
-        <v>0.7986871294390164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.79868712943901643</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -512,17 +539,17 @@
       <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D5">
-        <v>0.6647727272727273</v>
-      </c>
-      <c r="E5">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="F5">
-        <v>0.7168490153172866</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="D5" s="2">
+        <v>0.66477272727272729</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.71684901531728662</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -533,16 +560,28 @@
         <v>10</v>
       </c>
       <c r="D6">
-        <v>0.7412587412587412</v>
+        <v>0.74125874125874125</v>
       </c>
       <c r="E6">
-        <v>0.8763102725366876</v>
+        <v>0.87631027253668758</v>
       </c>
       <c r="F6">
-        <v>0.8031467517401392</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.80314675174013916</v>
+      </c>
+      <c r="H6" s="2">
+        <f>AVERAGE(D2:D6)</f>
+        <v>0.75319373797171185</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" ref="I6:J6" si="0">AVERAGE(E2:E6)</f>
+        <v>0.79716236977365806</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.77150031925645979</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -553,16 +592,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>0.7855361596009975</v>
+        <v>0.78553615960099754</v>
       </c>
       <c r="E7">
-        <v>0.7667638483965015</v>
+        <v>0.76676384839650147</v>
       </c>
       <c r="F7">
-        <v>0.7760364951196208</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.77603649511962081</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -573,16 +612,16 @@
         <v>11</v>
       </c>
       <c r="D8">
-        <v>0.7294117647058823</v>
+        <v>0.72941176470588232</v>
       </c>
       <c r="E8">
-        <v>0.7629733520336606</v>
+        <v>0.76297335203366057</v>
       </c>
       <c r="F8">
-        <v>0.745815182539858</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.74581518253985801</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -593,16 +632,16 @@
         <v>11</v>
       </c>
       <c r="D9">
-        <v>0.8812415654520918</v>
+        <v>0.88124156545209176</v>
       </c>
       <c r="E9">
         <v>0.706777316735823</v>
       </c>
       <c r="F9">
-        <v>0.7844258730326645</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.78442587303266453</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -616,13 +655,13 @@
         <v>0.6875</v>
       </c>
       <c r="E10">
-        <v>0.7722222222222223</v>
+        <v>0.77222222222222225</v>
       </c>
       <c r="F10">
-        <v>0.7274024738344435</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.72740247383444345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -633,16 +672,28 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>0.7552447552447552</v>
+        <v>0.75524475524475521</v>
       </c>
       <c r="E11">
-        <v>0.8539741219963032</v>
+        <v>0.85397412199630318</v>
       </c>
       <c r="F11">
-        <v>0.8015807990746542</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.80158079907465418</v>
+      </c>
+      <c r="H11">
+        <f>AVERAGE(D7:D11)</f>
+        <v>0.76778684900074534</v>
+      </c>
+      <c r="I11">
+        <f t="shared" ref="I11" si="1">AVERAGE(E7:E11)</f>
+        <v>0.77254217227690214</v>
+      </c>
+      <c r="J11">
+        <f t="shared" ref="J11" si="2">AVERAGE(F7:F11)</f>
+        <v>0.76705216472024806</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -653,16 +704,16 @@
         <v>12</v>
       </c>
       <c r="D12">
-        <v>0.8079800498753117</v>
+        <v>0.80798004987531169</v>
       </c>
       <c r="E12">
-        <v>0.7589098532494759</v>
+        <v>0.75890985324947591</v>
       </c>
       <c r="F12">
-        <v>0.7826765873677888</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.78267658736778878</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -673,16 +724,16 @@
         <v>12</v>
       </c>
       <c r="D13">
-        <v>0.7215686274509804</v>
+        <v>0.72156862745098038</v>
       </c>
       <c r="E13">
-        <v>0.8113553113553114</v>
+        <v>0.81135531135531136</v>
       </c>
       <c r="F13">
-        <v>0.763832468877238</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.76383246887723799</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -693,16 +744,16 @@
         <v>12</v>
       </c>
       <c r="D14">
-        <v>0.8852901484480432</v>
+        <v>0.88529014844804321</v>
       </c>
       <c r="E14">
-        <v>0.7477092241905925</v>
+        <v>0.74770922419059249</v>
       </c>
       <c r="F14">
-        <v>0.8107040592551906</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.81070405925519062</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -712,17 +763,17 @@
       <c r="C15" t="s">
         <v>12</v>
       </c>
-      <c r="D15">
-        <v>0.7954545454545454</v>
-      </c>
-      <c r="E15">
-        <v>0.7961783439490446</v>
-      </c>
-      <c r="F15">
-        <v>0.7958162801273306</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="D15" s="2">
+        <v>0.79545454545454541</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.79617834394904463</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.79581628012733063</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -733,16 +784,28 @@
         <v>12</v>
       </c>
       <c r="D16">
-        <v>0.7727272727272727</v>
+        <v>0.77272727272727271</v>
       </c>
       <c r="E16">
-        <v>0.8788598574821853</v>
+        <v>0.87885985748218531</v>
       </c>
       <c r="F16">
-        <v>0.8223834738837681</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.82238347388376809</v>
+      </c>
+      <c r="H16" s="2">
+        <f>AVERAGE(D12:D16)</f>
+        <v>0.79660412879123066</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" ref="I16" si="3">AVERAGE(E12:E16)</f>
+        <v>0.79860251804532179</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" ref="J16" si="4">AVERAGE(F12:F16)</f>
+        <v>0.79508257390226311</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -753,16 +816,16 @@
         <v>13</v>
       </c>
       <c r="D17">
-        <v>0.8179551122194514</v>
+        <v>0.81795511221945139</v>
       </c>
       <c r="E17">
-        <v>0.7428571428571429</v>
+        <v>0.74285714285714288</v>
       </c>
       <c r="F17">
-        <v>0.7785994704647128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>0.77859947046471278</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -773,16 +836,16 @@
         <v>13</v>
       </c>
       <c r="D18">
-        <v>0.7647058823529411</v>
+        <v>0.76470588235294112</v>
       </c>
       <c r="E18">
-        <v>0.8042071197411004</v>
+        <v>0.80420711974110037</v>
       </c>
       <c r="F18">
-        <v>0.7839592307225626</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>0.78395923072256257</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -793,16 +856,16 @@
         <v>13</v>
       </c>
       <c r="D19">
-        <v>0.9014844804318488</v>
+        <v>0.90148448043184881</v>
       </c>
       <c r="E19">
-        <v>0.7246376811594203</v>
+        <v>0.72463768115942029</v>
       </c>
       <c r="F19">
         <v>0.8034447090519834</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -813,16 +876,16 @@
         <v>13</v>
       </c>
       <c r="D20">
-        <v>0.8295454545454546</v>
+        <v>0.82954545454545459</v>
       </c>
       <c r="E20">
-        <v>0.7852941176470588</v>
+        <v>0.78529411764705881</v>
       </c>
       <c r="F20">
-        <v>0.8068134779369154</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.80681347793691538</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -833,16 +896,28 @@
         <v>13</v>
       </c>
       <c r="D21">
-        <v>0.8111888111888111</v>
+        <v>0.81118881118881114</v>
       </c>
       <c r="E21">
-        <v>0.8747390396659708</v>
+        <v>0.87473903966597077</v>
       </c>
       <c r="F21">
-        <v>0.841766177985989</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.84176617798598896</v>
+      </c>
+      <c r="H21">
+        <f>AVERAGE(D17:D21)</f>
+        <v>0.82497594814770137</v>
+      </c>
+      <c r="I21">
+        <f t="shared" ref="I21" si="5">AVERAGE(E17:E21)</f>
+        <v>0.78634702021413871</v>
+      </c>
+      <c r="J21">
+        <f t="shared" ref="J21" si="6">AVERAGE(F17:F21)</f>
+        <v>0.80291661323243257</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -853,16 +928,16 @@
         <v>14</v>
       </c>
       <c r="D22">
-        <v>0.8478802992518704</v>
+        <v>0.84788029925187036</v>
       </c>
       <c r="E22">
-        <v>0.6739130434782609</v>
+        <v>0.67391304347826086</v>
       </c>
       <c r="F22">
-        <v>0.7509529407573653</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>0.75095294075736529</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -873,16 +948,16 @@
         <v>14</v>
       </c>
       <c r="D23">
-        <v>0.7843137254901961</v>
+        <v>0.78431372549019607</v>
       </c>
       <c r="E23">
-        <v>0.7616580310880829</v>
+        <v>0.76165803108808294</v>
       </c>
       <c r="F23">
-        <v>0.7728198725110076</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>0.77281987251100759</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -893,16 +968,16 @@
         <v>14</v>
       </c>
       <c r="D24">
-        <v>0.8974358974358975</v>
+        <v>0.89743589743589747</v>
       </c>
       <c r="E24">
-        <v>0.6837262794709603</v>
+        <v>0.68372627947096032</v>
       </c>
       <c r="F24">
-        <v>0.7761386101682272</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.77613861016822716</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -912,17 +987,17 @@
       <c r="C25" t="s">
         <v>14</v>
       </c>
-      <c r="D25">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="E25">
-        <v>0.7575757575757576</v>
-      </c>
-      <c r="F25">
-        <v>0.7867132867132868</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="D25" s="2">
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.75757575757575757</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0.78671328671328677</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -933,16 +1008,28 @@
         <v>14</v>
       </c>
       <c r="D26">
-        <v>0.7727272727272727</v>
+        <v>0.77272727272727271</v>
       </c>
       <c r="E26">
-        <v>0.8142201834862385</v>
+        <v>0.81422018348623848</v>
       </c>
       <c r="F26">
-        <v>0.7929312836683747</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.79293128366837473</v>
+      </c>
+      <c r="H26" s="2">
+        <f>AVERAGE(D22:D26)</f>
+        <v>0.82410780261741101</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" ref="I26" si="7">AVERAGE(E22:E26)</f>
+        <v>0.73821865901986006</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" ref="J26" si="8">AVERAGE(F22:F26)</f>
+        <v>0.77591119876365222</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -953,16 +1040,16 @@
         <v>15</v>
       </c>
       <c r="D27">
-        <v>0.8503740648379052</v>
+        <v>0.85037406483790523</v>
       </c>
       <c r="E27">
         <v>0.6482649842271293</v>
       </c>
       <c r="F27">
-        <v>0.735691132662301</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.73569113266230102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -973,16 +1060,16 @@
         <v>15</v>
       </c>
       <c r="D28">
-        <v>0.796078431372549</v>
+        <v>0.79607843137254897</v>
       </c>
       <c r="E28">
-        <v>0.7332361516034985</v>
+        <v>0.73323615160349853</v>
       </c>
       <c r="F28">
-        <v>0.7633661404813791</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.76336614048137907</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -993,16 +1080,16 @@
         <v>15</v>
       </c>
       <c r="D29">
-        <v>0.9109311740890689</v>
+        <v>0.91093117408906887</v>
       </c>
       <c r="E29">
         <v>0.6585484656600098</v>
       </c>
       <c r="F29">
-        <v>0.7644474153409669</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.76444741534096694</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1013,16 +1100,16 @@
         <v>15</v>
       </c>
       <c r="D30">
-        <v>0.8295454545454546</v>
+        <v>0.82954545454545459</v>
       </c>
       <c r="E30">
-        <v>0.7238372093023255</v>
+        <v>0.72383720930232553</v>
       </c>
       <c r="F30">
-        <v>0.7730945899965975</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.77309458999659753</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1033,13 +1120,25 @@
         <v>15</v>
       </c>
       <c r="D31">
-        <v>0.8146853146853147</v>
+        <v>0.81468531468531469</v>
       </c>
       <c r="E31">
-        <v>0.8057142857142857</v>
+        <v>0.80571428571428572</v>
       </c>
       <c r="F31">
-        <v>0.8101749670164362</v>
+        <v>0.81017496701643621</v>
+      </c>
+      <c r="H31">
+        <f>AVERAGE(D27:D31)</f>
+        <v>0.84032288790605847</v>
+      </c>
+      <c r="I31">
+        <f t="shared" ref="I31" si="9">AVERAGE(E27:E31)</f>
+        <v>0.71392021930144967</v>
+      </c>
+      <c r="J31">
+        <f t="shared" ref="J31" si="10">AVERAGE(F27:F31)</f>
+        <v>0.76935484909953622</v>
       </c>
     </row>
   </sheetData>
